--- a/config/sites_config.xlsx
+++ b/config/sites_config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\prototipo_actualizacion_sitios\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C694CD32-A31E-4B70-BF9F-B822BF889D3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDFB1C8C-2416-4512-B6E6-AF25042E76BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{89A962F9-EF41-4C58-9F2F-42CB9E513858}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>dao.db</t>
   </si>
@@ -48,39 +48,9 @@
     <t>tomcat.host</t>
   </si>
   <si>
-    <t>tomcat.modules</t>
-  </si>
-  <si>
-    <t>tomcat.user</t>
-  </si>
-  <si>
-    <t>tomcat.pwd</t>
-  </si>
-  <si>
-    <t>db.sys.pwd</t>
-  </si>
-  <si>
-    <t>tomcat.host.start.shell</t>
-  </si>
-  <si>
-    <t>tomcat.host.stop.shell</t>
-  </si>
-  <si>
-    <t>tomcat.host.vefile.path</t>
-  </si>
-  <si>
-    <t>prefix</t>
-  </si>
-  <si>
     <t>Oracle:XE</t>
   </si>
   <si>
-    <t>base,ind,bsc,doc,imp</t>
-  </si>
-  <si>
-    <t>SVE_ORACLE</t>
-  </si>
-  <si>
     <t>jdbc:oracle:thin:@localhost:1521:XE</t>
   </si>
   <si>
@@ -90,19 +60,28 @@
     <t>localhost</t>
   </si>
   <si>
-    <t>admin</t>
-  </si>
-  <si>
-    <t>pensemos</t>
-  </si>
-  <si>
-    <t>C:\Program Files\Apache Software Foundation\Tomcat 9.0\bin\startup.bat</t>
-  </si>
-  <si>
-    <t>C:\Program Files\Apache Software Foundation\Tomcat 9.0\bin\shutdown.bat</t>
-  </si>
-  <si>
-    <t>C:\Program Files\Apache Software Foundation\Tomcat 9.0\webapps</t>
+    <t>war.name</t>
+  </si>
+  <si>
+    <t>context.path</t>
+  </si>
+  <si>
+    <t>sitios_uno</t>
+  </si>
+  <si>
+    <t>db.user</t>
+  </si>
+  <si>
+    <t>db.password</t>
+  </si>
+  <si>
+    <t>/sitios_uno</t>
+  </si>
+  <si>
+    <t>system</t>
+  </si>
+  <si>
+    <t>oracle</t>
   </si>
 </sst>
 </file>
@@ -465,10 +444,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97DA9EAF-C762-4791-8ED8-AE377F45BAD1}">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -486,7 +465,7 @@
     <col min="11" max="11" width="24.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -500,66 +479,42 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="E2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" t="s">
         <v>15</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L2" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
